--- a/story/Main Story and Others 主线剧情等/guide 导航文字/misc/auto_battle.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/misc/auto_battle.xlsx
@@ -58,7 +58,7 @@
     <t>[PopupDialog(dialogHead="$avatar_sys")] 同様の作戦を何度も実施する場合は、大きな助けになるかと思います。</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Oh, I forgot to tell you, you’re now able to use &lt;@tu.kw&gt;Auto Deploy&lt;/&gt;.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Oh, I forgot to tell you, you're now able to use &lt;@tu.kw&gt;Auto Deploy&lt;/&gt;.
 </t>
   </si>
   <si>
